--- a/daily_matches/job_matches_2026-02-22.xlsx
+++ b/daily_matches/job_matches_2026-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Scientist, Upstream Development</t>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ExxonMobil</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.6</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, Copilot, TensorFlow, PyTorch, Azure ML, MLflow, CI/CD, Databricks</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=18763024525c9788</t>
+          <t>https://www.indeed.com/viewjob?jk=b6880377961dd34c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Postdoctoral Research Associate, Agentic Workflows</t>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oak Ridge National Laboratory</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Oak Ridge, TN, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.4</v>
+        <v>18.9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LangChain, RAG, TensorFlow, PyTorch, S3, Dataflow, Git, Kafka, Polars, Python</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,67 +536,67 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ffa230522b70ff07</t>
+          <t>https://www.indeed.com/viewjob?jk=3f8d81da2675f09a</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sr Analyst Supply Chain Ops Research</t>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Staples</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Framingham, MA, US USA</t>
+          <t>Jericho, NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>18.9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, Snowflake, Hadoop, MySQL, NoSQL, Tableau, Power BI, MicroStrategy, Python, SQL</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3757762afd6acc3f</t>
+          <t>https://www.indeed.com/viewjob?jk=80ecea7854c84d2f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mercury Insurance Company</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Salt Lake City, UT, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>18.9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Kafka, MongoDB, NoSQL, Python, SQL, R, Java</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cee995a368e6f967</t>
+          <t>https://www.indeed.com/viewjob?jk=eadc8b3152de6edf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IT Architect Advisor - Enterprise Architecture Data and AI</t>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Medtronic</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mounds View, MN, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>18.9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, Prompt Engineering, BigQuery, Synapse, Data Lake, Git, Snowflake, Databricks, BigQuery, R</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,42 +641,2002 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=48d58844218ed408</t>
+          <t>https://www.indeed.com/viewjob?jk=09f0cc3c3e322d55</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AI Engineer – Agentic AI Solutions for Automated Decision Making</t>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KBR</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD, US USA</t>
+          <t>Portland, OR, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c6563c9072cece55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nashville, TN, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d7a5eb12bfa24145</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dayton, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cf0d2d6a3f455ebf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e4d966b7a2dd95df</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Morristown, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4d11ebfcd28367ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Richmond, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8bbb1511f618cabf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2db0377bd2033218</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cleveland, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=feb233ed89e926ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cincinnati, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5732e090675323b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Princeton, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6d5554c8b262ebca</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=321d41ed26b61c51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fc8dbba670528e7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>McLean, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=bb2fb6f6ffa31a2e</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rochester, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=87b713e6ebe771c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Midland, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=80f0d92cfd23c289</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Omaha, NE, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1ea0bc8d88a85d44</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Grand Rapids, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=227f56442e77932a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Charlotte, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c330d3407d356dad</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ac530f7ffd36eae0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=90a50b063d1b2b89</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Memphis, TN, US USA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d9122b799e128dfc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fort Worth, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2364dd118caf1a52</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tempe, AZ, US USA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b6a457603f4b679a</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Raleigh, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4e3fae432856abbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV, US USA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=605f88116d6b43b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tulsa, OK, US USA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7dd90302f7439c7e</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Kansas City, MO, US USA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d5076d2c13ddf5d3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=14187c0426ae0fa2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>St. Louis, MO, US USA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=98da314a69e75f1e</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=86465adf9c646cb9</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f72ac04a60f4d162</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Hartford, CT, US USA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=141d40bfe20c12e8</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Baltimore, MD, US USA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=94375b5d9e7cae99</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sacramento, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=97c2cd5621dd40bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=589547b629f51343</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Jacksonville, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=37caaacce8d7ce07</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Honolulu, HI, US USA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a4a13b839782ca75</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Birmingham, AL, US USA</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=96620e34867483df</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tampa, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3d543eb6b3aa6442</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Louisville, KY, US USA</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8a4e6ad85a494486</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7aca591c0990d287</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Davenport, IA, US USA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7e0db06ec1b0cb8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a4a46b57ca5d88d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Stamford, CT, US USA</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1e2524ec035ff2bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Detroit, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2d05c90daafadf3a</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Miami, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5e5834374e4863cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Des Moines, IA, US USA</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=69224637a7d705fa</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>San Diego, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=92a2e1a31907db35</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN, US USA</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1fdad3de4918ac39</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Boise, ID, US USA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2dcfff1f54bd57bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=678a91e6ce1e590b</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Denver, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=43e82f243cf6d372</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cf997269e2e10bdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>New Orleans, LA, US USA</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c9a413fb586ebb9f</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Senior Consultant - GenAI Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Costa Mesa, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Keras</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=77c3f0c49614639e</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Specialist, Data Engineer</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nationwide Mutual Insurance Company</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, CI/CD, Jenkins, Git, Snowflake, Databricks, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e118e0038cca00a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026 Summer Intern - Data Engineering</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Western Digital</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>11.1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, RAG, Prompt Engineering, Data Lake, CI/CD, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=483d9c2d7745bdd6</t>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Docker, CI/CD, Jenkins, Git, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=77ed82398fcdee21</t>
         </is>
       </c>
     </row>
